--- a/learningMVVM/WpfApp1/Resources/IndexChart-university.xlsx
+++ b/learningMVVM/WpfApp1/Resources/IndexChart-university.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE54BC2D-3928-4732-A18A-94CCBE87CCB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F687E-E3A1-4B65-A0BF-14C1CA342109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
-  <si>
-    <t>农林、医药类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>综合一类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>师范、民族类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>理工类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +163,18 @@
   </si>
   <si>
     <t>42.80-38.26-36.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师范类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农林类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43016940-33EA-4FA0-BE30-386BED332A68}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -578,232 +582,278 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/learningMVVM/WpfApp1/Resources/IndexChart-university.xlsx
+++ b/learningMVVM/WpfApp1/Resources/IndexChart-university.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F687E-E3A1-4B65-A0BF-14C1CA342109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E80E54-2F5A-4C22-960A-A92874CEC72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>综合一类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-5000-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>45-51-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,13 @@
   </si>
   <si>
     <t>民族类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000-5000-0</t>
+  </si>
+  <si>
+    <t>10000-5000-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +570,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -582,25 +585,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -608,137 +611,137 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,114 +749,114 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
